--- a/Mifos Automation Excels/Client/2409-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2409-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -307,21 +307,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -342,11 +333,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,162 +659,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>42005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>42005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>42005</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="14">
         <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>42064</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="14">
         <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>42005</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>42005</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -831,18 +829,18 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E7"/>
+      <selection activeCell="A7" sqref="A7:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -866,79 +864,80 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="15">
         <v>5000</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="21">
+      <c r="B2" s="16">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
         <v>5000</v>
       </c>
-      <c r="F2" s="22">
-        <v>1674.42</v>
+      <c r="F2" s="17">
+        <v>1665.42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>74.08</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>74.08</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="A3" s="16">
+        <v>74.34</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>74.34</v>
+      </c>
+      <c r="F3" s="16">
         <v>28.08</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="A4" s="16">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="A5" s="16">
+        <v>0</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
         <v>0</v>
       </c>
     </row>
@@ -951,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,284 +1025,307 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="18">
         <v>42005</v>
       </c>
-      <c r="G2" s="19">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15">
         <v>5000</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16">
+        <v>0</v>
+      </c>
+      <c r="L2" s="16">
+        <v>0</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="16">
         <v>31</v>
       </c>
       <c r="C3" s="18">
         <v>42036</v>
       </c>
-      <c r="F3">
-        <v>838.51</v>
-      </c>
-      <c r="G3" s="20">
-        <v>4161.49</v>
-      </c>
-      <c r="H3">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16">
+        <v>834.01</v>
+      </c>
+      <c r="G3" s="17">
+        <v>4165.99</v>
+      </c>
+      <c r="H3" s="16">
         <v>12.74</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>851.25</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>851.25</v>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>846.75</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0</v>
+      </c>
+      <c r="P3" s="16">
+        <v>846.75</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="16">
         <v>28</v>
       </c>
       <c r="C4" s="18">
         <v>42064</v>
       </c>
-      <c r="F4">
-        <v>835.91</v>
-      </c>
-      <c r="G4" s="20">
-        <v>3325.58</v>
-      </c>
-      <c r="H4">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16">
+        <v>831.41</v>
+      </c>
+      <c r="G4" s="17">
+        <v>3334.58</v>
+      </c>
+      <c r="H4" s="16">
         <v>15.34</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>851.25</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>851.25</v>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <v>846.75</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
+      <c r="P4" s="16">
+        <v>846.75</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="16">
         <v>31</v>
       </c>
       <c r="C5" s="18">
         <v>42095</v>
       </c>
-      <c r="F5">
-        <v>830.02</v>
-      </c>
-      <c r="G5" s="20">
-        <v>2495.5700000000002</v>
-      </c>
-      <c r="H5">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16">
+        <v>825.52</v>
+      </c>
+      <c r="G5" s="17">
+        <v>2509.06</v>
+      </c>
+      <c r="H5" s="16">
         <v>21.23</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>851.25</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>851.25</v>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>846.75</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16">
+        <v>846.75</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="16">
         <v>30</v>
       </c>
       <c r="C6" s="18">
         <v>42125</v>
       </c>
-      <c r="F6">
-        <v>838.94</v>
-      </c>
-      <c r="G6" s="20">
-        <v>1656.62</v>
-      </c>
-      <c r="H6">
-        <v>12.31</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>851.25</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>851.25</v>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16">
+        <v>834.38</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1674.68</v>
+      </c>
+      <c r="H6" s="16">
+        <v>12.37</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>846.75</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
+        <v>846.75</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="16">
         <v>31</v>
       </c>
       <c r="C7" s="18">
         <v>42156</v>
       </c>
-      <c r="F7">
-        <v>842.81</v>
-      </c>
-      <c r="G7">
-        <v>813.81</v>
-      </c>
-      <c r="H7">
-        <v>8.44</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>851.25</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16">
+        <v>838.22</v>
+      </c>
+      <c r="G7" s="16">
+        <v>836.46</v>
+      </c>
+      <c r="H7" s="16">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>846.75</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>846.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="16">
         <v>30</v>
       </c>
       <c r="C8" s="18">
         <v>42186</v>
       </c>
-      <c r="F8">
-        <v>813.81</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.01</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>817.83</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>817.83</v>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16">
+        <v>836.46</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>4.13</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>840.59</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>840.59</v>
       </c>
     </row>
   </sheetData>
@@ -1316,23 +1338,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1368,40 +1390,38 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="16">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="18">
         <v>42005</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="e">
-        <f>'Repayment schedule'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="e">
-        <f>E2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="E2" s="15">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>5000</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/2409-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2409-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Newcreateloan1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -196,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,6 +360,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -402,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,9 +443,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,6 +495,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -948,10 +990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,12 +1011,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1014,17 +1057,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="18">
@@ -1051,8 +1095,9 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1088,17 +1133,18 @@
       <c r="M3" s="16">
         <v>0</v>
       </c>
-      <c r="N3" s="16">
-        <v>0</v>
-      </c>
+      <c r="N3" s="16"/>
       <c r="O3" s="16">
         <v>0</v>
       </c>
       <c r="P3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
         <v>846.75</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1134,17 +1180,18 @@
       <c r="M4" s="16">
         <v>0</v>
       </c>
-      <c r="N4" s="16">
-        <v>0</v>
-      </c>
+      <c r="N4" s="16"/>
       <c r="O4" s="16">
         <v>0</v>
       </c>
       <c r="P4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
         <v>846.75</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1180,17 +1227,18 @@
       <c r="M5" s="16">
         <v>0</v>
       </c>
-      <c r="N5" s="16">
-        <v>0</v>
-      </c>
+      <c r="N5" s="16"/>
       <c r="O5" s="16">
         <v>0</v>
       </c>
       <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
         <v>846.75</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1226,17 +1274,18 @@
       <c r="M6" s="16">
         <v>0</v>
       </c>
-      <c r="N6" s="16">
-        <v>0</v>
-      </c>
+      <c r="N6" s="16"/>
       <c r="O6" s="16">
         <v>0</v>
       </c>
       <c r="P6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
         <v>846.75</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1272,17 +1321,18 @@
       <c r="M7" s="16">
         <v>0</v>
       </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
+      <c r="N7" s="16"/>
       <c r="O7" s="16">
         <v>0</v>
       </c>
       <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
         <v>846.75</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1318,13 +1368,14 @@
       <c r="M8" s="16">
         <v>0</v>
       </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
+      <c r="N8" s="16"/>
       <c r="O8" s="16">
         <v>0</v>
       </c>
       <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
         <v>840.59</v>
       </c>
     </row>
@@ -1338,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
